--- a/dist/smg-front/assets/bd/mercaderiaImagenes.xlsx
+++ b/dist/smg-front/assets/bd/mercaderiaImagenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Proyectos-Recap\plantillas\plantilla2\smgFront\src\assets\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92241111-A94B-4DF2-8EDD-20E48B6D86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290BA4D-EB0D-4D08-90BA-D28C1506FDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A005A446-4FBB-42A9-BE7A-84389F7F20C8}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
